--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A270C1-71D7-4962-B245-3B0AB124A2A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A291997-8659-4CC6-9E32-264DBE50320E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2265,10 +2265,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザ氏名（ひらがな）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>文字種バリデーション（全角ひらがな）
 文字数バリデーション（桁数可変、最大値指定）</t>
     <phoneticPr fontId="11"/>
@@ -2468,6 +2464,10 @@
   </si>
   <si>
     <t>min = 0, max = 2,147,483,647</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ氏名（ふりがな）</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -9989,7 +9989,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="24"/>
       <c r="J23" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
@@ -11049,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="169"/>
       <c r="D9" s="171">
@@ -11058,12 +11058,12 @@
       <c r="E9" s="172"/>
       <c r="F9" s="173"/>
       <c r="G9" s="170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="168"/>
       <c r="I9" s="169"/>
       <c r="J9" s="156" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K9" s="143"/>
       <c r="L9" s="143"/>
@@ -11072,7 +11072,7 @@
       <c r="O9" s="143"/>
       <c r="P9" s="144"/>
       <c r="Q9" s="166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="154"/>
       <c r="S9" s="154"/>
@@ -11089,7 +11089,7 @@
       <c r="AD9" s="154"/>
       <c r="AE9" s="155"/>
       <c r="AF9" s="156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG9" s="143"/>
       <c r="AH9" s="143"/>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="259"/>
       <c r="D9" s="259"/>
@@ -16160,7 +16160,7 @@
       <c r="AB9" s="256"/>
       <c r="AC9" s="257"/>
       <c r="AD9" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE9" s="244"/>
       <c r="AF9" s="244"/>
@@ -16208,7 +16208,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="259"/>
       <c r="D10" s="259"/>
@@ -16240,7 +16240,7 @@
       <c r="AB10" s="256"/>
       <c r="AC10" s="257"/>
       <c r="AD10" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE10" s="244"/>
       <c r="AF10" s="244"/>
@@ -16320,7 +16320,7 @@
       <c r="AB11" s="256"/>
       <c r="AC11" s="257"/>
       <c r="AD11" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE11" s="244"/>
       <c r="AF11" s="244"/>
@@ -16368,7 +16368,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="258" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="259"/>
       <c r="D12" s="259"/>
@@ -16400,7 +16400,7 @@
       <c r="AB12" s="256"/>
       <c r="AC12" s="257"/>
       <c r="AD12" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE12" s="244"/>
       <c r="AF12" s="244"/>
@@ -16444,11 +16444,11 @@
     </row>
     <row r="13" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="91">
-        <f t="shared" ref="A13" si="1">A12+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="258" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="259"/>
       <c r="D13" s="259"/>
@@ -16503,7 +16503,7 @@
       <c r="AV13" s="154"/>
       <c r="AW13" s="155"/>
       <c r="AX13" s="240" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY13" s="241"/>
       <c r="AZ13" s="241"/>
@@ -16526,8 +16526,8 @@
     </row>
     <row r="14" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="91">
-        <f>A12+1</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>163</v>
@@ -16609,10 +16609,10 @@
     <row r="15" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="91">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="258" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="259"/>
       <c r="D15" s="259"/>
@@ -16691,7 +16691,7 @@
     <row r="16" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="91">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="258" t="s">
         <v>189</v>
@@ -16726,7 +16726,7 @@
       <c r="AB16" s="256"/>
       <c r="AC16" s="257"/>
       <c r="AD16" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE16" s="244"/>
       <c r="AF16" s="244"/>
@@ -16772,10 +16772,10 @@
     <row r="17" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="91">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="258" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="259"/>
       <c r="D17" s="259"/>
@@ -16807,7 +16807,7 @@
       <c r="AB17" s="256"/>
       <c r="AC17" s="257"/>
       <c r="AD17" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE17" s="244"/>
       <c r="AF17" s="244"/>
@@ -16853,7 +16853,7 @@
     <row r="18" spans="1:66" s="92" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="91">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="258" t="s">
         <v>165</v>
@@ -16938,7 +16938,7 @@
     <row r="19" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A19" s="91">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="258" t="s">
         <v>171</v>
@@ -17021,7 +17021,7 @@
     <row r="20" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="91">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="258" t="s">
         <v>172</v>
@@ -17104,7 +17104,7 @@
     <row r="21" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="91">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="258" t="s">
         <v>218</v>
@@ -17139,7 +17139,7 @@
       <c r="AB21" s="256"/>
       <c r="AC21" s="257"/>
       <c r="AD21" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE21" s="244"/>
       <c r="AF21" s="244"/>
@@ -17181,7 +17181,7 @@
     <row r="22" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="91">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="258" t="s">
         <v>164</v>
@@ -17264,10 +17264,10 @@
     <row r="23" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="91">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="258" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="259"/>
       <c r="D23" s="259"/>
@@ -17341,10 +17341,10 @@
     <row r="24" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="91">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="258" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="259"/>
       <c r="D24" s="259"/>
@@ -17361,7 +17361,7 @@
       <c r="M24" s="244"/>
       <c r="N24" s="245"/>
       <c r="O24" s="246" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P24" s="247"/>
       <c r="Q24" s="248"/>
@@ -17380,7 +17380,7 @@
       <c r="AB24" s="256"/>
       <c r="AC24" s="257"/>
       <c r="AD24" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE24" s="244"/>
       <c r="AF24" s="244"/>
@@ -17422,10 +17422,10 @@
     <row r="25" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="91">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="258" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="259"/>
       <c r="D25" s="259"/>
@@ -17442,7 +17442,7 @@
       <c r="M25" s="244"/>
       <c r="N25" s="245"/>
       <c r="O25" s="246" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P25" s="247"/>
       <c r="Q25" s="248"/>
@@ -17461,7 +17461,7 @@
       <c r="AB25" s="256"/>
       <c r="AC25" s="257"/>
       <c r="AD25" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE25" s="244"/>
       <c r="AF25" s="244"/>
@@ -17503,7 +17503,7 @@
     <row r="26" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="91">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="258" t="s">
         <v>174</v>
@@ -17588,10 +17588,10 @@
     <row r="27" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="91">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="258" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C27" s="259"/>
       <c r="D27" s="259"/>
@@ -17633,7 +17633,7 @@
       <c r="AJ27" s="32"/>
       <c r="AK27" s="87"/>
       <c r="AL27" s="166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM27" s="154"/>
       <c r="AN27" s="154"/>
@@ -17654,7 +17654,7 @@
       <c r="BA27" s="241"/>
       <c r="BB27" s="241"/>
       <c r="BC27" s="166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BD27" s="154"/>
       <c r="BE27" s="154"/>
@@ -17671,7 +17671,7 @@
     <row r="28" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="91">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="258" t="s">
         <v>178</v>
@@ -17756,7 +17756,7 @@
     <row r="29" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="91">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="258" t="s">
         <v>213</v>
@@ -17791,7 +17791,7 @@
       <c r="AB29" s="256"/>
       <c r="AC29" s="257"/>
       <c r="AD29" s="243" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE29" s="244"/>
       <c r="AF29" s="244"/>
@@ -17836,10 +17836,10 @@
     <row r="30" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="91">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="258" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="259"/>
       <c r="D30" s="259"/>
@@ -17871,7 +17871,7 @@
       <c r="AB30" s="256"/>
       <c r="AC30" s="257"/>
       <c r="AD30" s="243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE30" s="244"/>
       <c r="AF30" s="244"/>
@@ -17913,10 +17913,10 @@
     <row r="31" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="91">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="262" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="263"/>
       <c r="D31" s="263"/>
@@ -17948,7 +17948,7 @@
       <c r="AB31" s="256"/>
       <c r="AC31" s="257"/>
       <c r="AD31" s="243" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE31" s="244"/>
       <c r="AF31" s="244"/>
@@ -17989,10 +17989,10 @@
     <row r="32" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="91">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="134"/>
       <c r="D32" s="134"/>
@@ -18064,10 +18064,10 @@
     <row r="33" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="91">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="131"/>
       <c r="D33" s="131"/>
@@ -18141,10 +18141,10 @@
     <row r="34" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="91">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" s="131"/>
       <c r="D34" s="131"/>
@@ -18218,10 +18218,10 @@
     <row r="35" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="91">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
@@ -18295,10 +18295,10 @@
     <row r="36" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="91">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="131"/>
       <c r="D36" s="131"/>
@@ -18372,10 +18372,10 @@
     <row r="37" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="91">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="131"/>
       <c r="D37" s="131"/>
@@ -18449,10 +18449,10 @@
     <row r="38" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="91">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="131"/>
       <c r="D38" s="131"/>
@@ -18526,10 +18526,10 @@
     <row r="39" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="91">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="131"/>
       <c r="D39" s="131"/>
@@ -18603,10 +18603,10 @@
     <row r="40" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="91">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" s="131"/>
       <c r="D40" s="131"/>
@@ -18680,10 +18680,10 @@
     <row r="41" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="91">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="131"/>
@@ -18757,10 +18757,10 @@
     <row r="42" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="91">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="131"/>
       <c r="D42" s="131"/>
@@ -18775,7 +18775,7 @@
       <c r="M42" s="244"/>
       <c r="N42" s="245"/>
       <c r="O42" s="246" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P42" s="247"/>
       <c r="Q42" s="248"/>
@@ -18832,10 +18832,10 @@
     <row r="43" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="91">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="134"/>
       <c r="D43" s="134"/>
@@ -18909,10 +18909,10 @@
     <row r="44" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="91">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="131"/>
       <c r="D44" s="131"/>
@@ -18986,10 +18986,10 @@
     <row r="45" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="91">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
@@ -19185,6 +19185,10 @@
     <mergeCell ref="AX34:BB34"/>
     <mergeCell ref="BC34:BG34"/>
     <mergeCell ref="BH34:BN34"/>
+    <mergeCell ref="BC24:BG24"/>
+    <mergeCell ref="BH24:BN24"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AI28"/>
     <mergeCell ref="AX35:BB35"/>
     <mergeCell ref="BC35:BG35"/>
     <mergeCell ref="BH35:BN35"/>
@@ -19203,8 +19207,6 @@
     <mergeCell ref="AA35:AC35"/>
     <mergeCell ref="AD35:AI35"/>
     <mergeCell ref="AL35:AW35"/>
-    <mergeCell ref="BC24:BG24"/>
-    <mergeCell ref="BH24:BN24"/>
     <mergeCell ref="AL17:AW17"/>
     <mergeCell ref="AX17:BB17"/>
     <mergeCell ref="BC17:BG17"/>
@@ -19227,6 +19229,8 @@
     <mergeCell ref="BC30:BG30"/>
     <mergeCell ref="G21:N21"/>
     <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="BH30:BN30"/>
+    <mergeCell ref="X28:Z28"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:N24"/>
     <mergeCell ref="O24:Q24"/>
@@ -19269,6 +19273,12 @@
     <mergeCell ref="AX12:BB12"/>
     <mergeCell ref="BC12:BG12"/>
     <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="V30:W30"/>
@@ -19293,10 +19303,6 @@
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="BH30:BN30"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AI28"/>
     <mergeCell ref="AL28:AW28"/>
     <mergeCell ref="X29:Z29"/>
     <mergeCell ref="AA29:AC29"/>
@@ -19354,11 +19360,6 @@
     <mergeCell ref="AX21:BB21"/>
     <mergeCell ref="BC21:BG21"/>
     <mergeCell ref="BH21:BN21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -19375,7 +19376,10 @@
     <mergeCell ref="R7:W7"/>
     <mergeCell ref="X7:AC7"/>
     <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="AA10:AC10"/>
     <mergeCell ref="T14:U14"/>
@@ -19385,15 +19389,10 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="R15:S15"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA14:AC14"/>
     <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD14:AI14"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -19402,6 +19401,7 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="G22:N22"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -19443,7 +19443,6 @@
     <mergeCell ref="AA21:AC21"/>
     <mergeCell ref="AD21:AI21"/>
     <mergeCell ref="AL21:AW21"/>
-    <mergeCell ref="BC18:BG18"/>
     <mergeCell ref="BH18:BN18"/>
     <mergeCell ref="AL9:AW9"/>
     <mergeCell ref="AX9:BB9"/>
@@ -19467,7 +19466,7 @@
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AA18:AC18"/>
     <mergeCell ref="AL18:AW18"/>
-    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AD14:AI14"/>
     <mergeCell ref="AX11:BB11"/>
     <mergeCell ref="BC11:BG11"/>
     <mergeCell ref="BH11:BN11"/>
@@ -19491,6 +19490,7 @@
     <mergeCell ref="BH23:BN23"/>
     <mergeCell ref="BH26:BN26"/>
     <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="BC18:BG18"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="G31:N31"/>
     <mergeCell ref="O31:Q31"/>
@@ -22597,7 +22597,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
